--- a/data/trans_bre/P18_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_3_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>-8,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>-7,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,41</t>
+          <t>-9,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>47,01%</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,17%</t>
+          <t>-10,32%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>46,9%</t>
+          <t>-6,21%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>-8,93%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-12,14%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-5,51%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-6,69%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-7,7%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,16; 12,77</t>
+          <t>-13,27; -4,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 9,91</t>
+          <t>-9,4; 0,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 11,94</t>
+          <t>-11,59; -2,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,02; 14,34</t>
+          <t>-15,11; -5,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 9,86</t>
+          <t>-10,05; 3,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,83; 80,97</t>
+          <t>-10,29; 0,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 63,14</t>
+          <t>-10,66; -0,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,97; 67,65</t>
+          <t>-16,02; -5,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,27; 83,03</t>
+          <t>-11,19; 0,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 39,87</t>
+          <t>-14,15; -2,83</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-18,5; -6,97</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-14,03; 5,73</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-13,75; 0,27</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-15,19; -0,16</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>-5,93</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>-7,21</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,98</t>
+          <t>-9,96</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,66</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,07%</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,97%</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>-7,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>46,34%</t>
+          <t>-8,48%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>-7,5%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-12,79%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-8,91%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-8,1%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-5,08%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 11,82</t>
+          <t>-10,81; -0,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 11,82</t>
+          <t>-12,27; -0,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 11,04</t>
+          <t>-11,15; 0,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,76; 16,2</t>
+          <t>-16,15; -4,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 14,9</t>
+          <t>-13,3; 0,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,64; 83,37</t>
+          <t>-15,16; 3,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 95,42</t>
+          <t>-13,0; 4,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 60,7</t>
+          <t>-12,64; -0,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,53; 88,35</t>
+          <t>-14,18; -1,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 61,23</t>
+          <t>-13,65; -0,0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-20,14; -5,78</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-16,82; 0,83</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-20,55; 5,34</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-17,94; 7,64</t>
         </is>
       </c>
     </row>
@@ -876,50 +988,70 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,85</t>
+          <t>-9,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-8,74</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>11,71%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>42,74%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>-2,27%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>56,08%</t>
+          <t>-5,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,15%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-11,34%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-11,65%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 11,17</t>
+          <t>-9,96; 6,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 16,05</t>
+          <t>-12,94; 5,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 12,06</t>
+          <t>-11,78; 10,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 19,38</t>
+          <t>-19,33; 0,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-22,65; 9,81</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-34,89; 104,91</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,91; 166,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-35,03; 81,57</t>
+          <t>-11,56; 8,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 156,85</t>
+          <t>-14,26; 7,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-13,94; 14,99</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-22,64; 0,88</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-27,74; 14,97</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>-6,75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>-5,9</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>-6,04</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,67</t>
+          <t>-9,73</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,94%</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>-4,81</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>-8,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>47,52%</t>
+          <t>-7,04%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>-7,62%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-12,27%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-7,8%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-6,92%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-7,14%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 9,96</t>
+          <t>-9,65; -3,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 9,2</t>
+          <t>-9,09; -2,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 9,4</t>
+          <t>-9,36; -2,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,94; 13,01</t>
+          <t>-13,72; -6,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 9,43</t>
+          <t>-10,23; -0,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,73; 63,41</t>
+          <t>-9,19; -0,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,14; 64,18</t>
+          <t>-9,14; -0,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,23; 51,48</t>
+          <t>-11,5; -4,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,3; 70,97</t>
+          <t>-10,67; -3,13</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 35,53</t>
+          <t>-11,5; -2,7</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-16,81; -7,9</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-13,57; -0,88</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-12,45; -0,32</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-13,32; -0,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P18_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_3_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-8,46</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-5,12</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-7,09</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-9,69</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-3,83</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-4,83</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-5,17</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-10,32%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-6,21%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-8,93%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-12,14%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-5,51%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>-6,69%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>-7,7%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-8.461491142734745</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-4.989424444183921</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-7.352805629152259</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-9.451390370636947</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-3.839153417711272</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-4.826619745672556</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-5.045845205129973</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1031781293296097</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.06077635827972588</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.09245189340917578</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.1186245977779035</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.05526689622363787</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>-0.06690586957920849</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>-0.07506806200744238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,27; -4,24</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,4; 0,01</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-11,59; -2,12</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-15,11; -5,22</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-10,05; 3,73</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-10,29; 0,27</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-10,66; -0,18</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-16,02; -5,27</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-11,19; 0,01</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-14,15; -2,83</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-18,5; -6,97</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-14,03; 5,73</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>-13,75; 0,27</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>-15,19; -0,16</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-13.27341947868697</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.393171958889928</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-11.79833923805378</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-15.07686898578391</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-10.10743376644614</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-10.29213671804692</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-10.54514923148503</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1601926473777835</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1117982964095239</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1438834117587825</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.1811835370311548</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.1389280170315567</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>-0.1374545982432641</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-0.1502325393527182</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-4.235385063751298</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.5622286436137027</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-2.579099819951165</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-4.803820680343053</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.904639015829889</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.2747135204526348</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>-0.04254725852863819</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.05266458537091447</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.00690237753508313</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>-0.0344272490662143</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>-0.06228161833003117</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.05860718513525414</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.002738389579431458</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>-0.001021122682383069</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-5,93</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-7,21</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-5,95</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-9,96</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-6,74</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-5,66</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-3,45</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-7,14%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-8,48%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-7,5%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-12,79%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-8,91%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>-8,1%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>-5,08%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-10,81; -0,79</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-12,27; -0,64</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,15; 0,03</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-16,15; -4,1</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-13,3; 0,63</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-15,16; 3,68</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-13,0; 4,8</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-12,64; -0,99</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-14,18; -1,13</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-13,65; -0,0</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-20,14; -5,78</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-16,82; 0,83</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>-20,55; 5,34</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-17,94; 7,64</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-5.931769259419539</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-6.70949555249244</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-5.113446122976617</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-10.2886231531103</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-6.407494397127167</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-5.656940376203689</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-3.230065305454155</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.07138607803237575</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.07914543489980799</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.06500517442419132</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.1314337266965859</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.08475140901206389</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>-0.08100505345682708</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>-0.04764459953145836</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,9</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,3</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,7</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-9,29</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-8,74</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-2,27%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-5,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-2,15%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-11,34%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-11,65%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-10.80829841134031</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-11.89151050801394</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-10.48298007247176</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-16.76208657104353</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-12.87172872330457</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-15.15574147693019</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-12.48054860069156</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1263974400835436</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1371002834176251</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1282795470572546</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.2058045659125808</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.1635280852599508</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>-0.2055167451919981</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.1761461958181086</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,96; 6,91</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,94; 5,88</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,78; 10,76</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-19,33; 0,95</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-22,65; 9,81</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-11,56; 8,53</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-14,26; 7,18</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-13,94; 14,99</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-22,64; 0,88</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-27,74; 14,97</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.7879846357433239</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-0.3317430438585162</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.400211136351689</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-4.794038089960476</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.063303554334164</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>3.678613196485523</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>5.222374530594281</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.009949608666883887</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-0.004779854508257519</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.01922890625881074</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>-0.06222692660626693</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.01421417061424793</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>0.05338357866094555</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.08017012317612997</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-6,75</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-5,9</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-6,04</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-9,73</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-5,67</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-4,95</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-4,81</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-8,17%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-7,04%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-7,62%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-12,27%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-7,8%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>-6,92%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>-7,14%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.898559806767697</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.493904740982225</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.578700885696405</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-9.477035270672229</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-9.793014403574951</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>-0.02265728065511722</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.0630552707291553</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.02009816431468048</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>-0.1152276457037191</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>-0.1303782264392605</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-9,65; -3,66</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-9,09; -2,55</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-9,36; -2,1</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-13,72; -6,15</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-10,23; -0,56</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-9,19; -0,22</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-9,14; -0,15</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-11,5; -4,38</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-10,67; -3,13</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-11,5; -2,7</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-16,81; -7,9</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-13,57; -0,88</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>-12,45; -0,32</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>-13,32; -0,34</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.962449155210319</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.14782230606935</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.01735579687582</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-19.49339703579564</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-23.78873679834392</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.115631858999158</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1550784237190585</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.1431797961692795</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.2281998861996598</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.2901760448020853</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.910165126528539</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.053689694891194</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.32813132365585</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.5072979273725213</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>9.178130942711249</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>0.08525234578227307</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.04885106400819098</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.1452687298950128</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>0.004890138576017585</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>0.1341533136712937</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-6.753333294588937</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-5.791800727138662</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-5.822057407364889</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-9.76969442142348</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-5.669219508088452</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-4.953142725672144</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-4.657297009493099</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.08169616459925236</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.06912821200721368</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.07363656439874031</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.1230020624657354</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.07805574330778477</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>-0.06918955922254057</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>-0.06914288731278834</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-9.65105992731886</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-9.215617436736572</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-9.022685598313346</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-13.75960148591634</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-10.28788264503467</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-9.185425269225471</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-9.000266839076303</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1150332687791188</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1077079338975537</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1105312009819021</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.1679525472805163</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.1360291258916622</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>-0.1244810253552768</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>-0.1298320773952833</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-3.660193679519474</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-2.434674687646469</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-1.634762693514445</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-6.175838935051089</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.7820863706809114</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.2239316608248324</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>-0.01019721275740142</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.04378019859290957</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.02926898960523902</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>-0.02083806756398932</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>-0.07936476598760972</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>-0.01132309255898003</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>-0.0031680219290202</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>-0.0007078970653729532</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
